--- a/聪明人与猪小弟/项目计划.xlsx
+++ b/聪明人与猪小弟/项目计划.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1823694B-A716-41FD-855D-51EEFB06064C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F440EA31-849B-4352-95AE-BEE4F678E958}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>方案阶段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +123,10 @@
   </si>
   <si>
     <t>windy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,7 +459,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -582,6 +586,21 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
+      <c r="E5" s="1">
+        <v>43347</v>
+      </c>
+      <c r="F5" s="1">
+        <v>43347</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
